--- a/docss/trend/spain/E_dystrophy.xlsx
+++ b/docss/trend/spain/E_dystrophy.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ej8_Distrofia_Comarcas" sheetId="1" r:id="rId1"/>
     <sheet name="Tasa_anual_Ej8_Distrofia" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -12809,7 +12809,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12833,13 +12833,13 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>0.15527370085793077</v>
+        <v>0.155</v>
       </c>
       <c r="C2">
-        <v>0.22934257230592564</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="D2">
-        <v>7.6394107594782032E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12847,13 +12847,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>0.17572376941692702</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="C3">
-        <v>0.25848177082119944</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="D3">
-        <v>8.915226041748063E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12861,13 +12861,13 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>0.17149130710233942</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="C4">
-        <v>0.26779647380804034</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="D4">
-        <v>7.447156641763937E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12875,13 +12875,13 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>0.15497581467656818</v>
+        <v>0.155</v>
       </c>
       <c r="C5">
-        <v>0.23947683364872277</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="D5">
-        <v>6.9164567550813266E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12889,13 +12889,13 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>0.18562216488756006</v>
+        <v>0.186</v>
       </c>
       <c r="C6">
-        <v>0.26342311688280234</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="D6">
-        <v>0.10639248251402814</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12903,13 +12903,13 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>0.14908728992263204</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="C7">
-        <v>0.22057523862122985</v>
+        <v>0.221</v>
       </c>
       <c r="D7">
-        <v>7.7361802263636523E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12917,13 +12917,13 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>0.18563198141241502</v>
+        <v>0.186</v>
       </c>
       <c r="C8">
-        <v>0.31265700779772415</v>
+        <v>0.313</v>
       </c>
       <c r="D8">
-        <v>5.4476859102804871E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12931,13 +12931,13 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>0.16119148363315239</v>
+        <v>0.161</v>
       </c>
       <c r="C9">
-        <v>0.24211711630868996</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D9">
-        <v>7.3510312224426735E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12945,13 +12945,13 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>0.24086039957676408</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="C10">
-        <v>0.36591076456391669</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="D10">
-        <v>0.11203134184082741</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12959,13 +12959,13 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>0.14418209346845232</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="C11">
-        <v>0.20663873330206109</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="D11">
-        <v>8.2660390367549019E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12973,13 +12973,13 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>0.15270317811320874</v>
+        <v>0.153</v>
       </c>
       <c r="C12">
-        <v>0.22021779316085272</v>
+        <v>0.22</v>
       </c>
       <c r="D12">
-        <v>8.2980824844214152E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12987,13 +12987,13 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>0.18220885192261116</v>
+        <v>0.182</v>
       </c>
       <c r="C13">
-        <v>0.26785763369859106</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="D13">
-        <v>9.8233015722311648E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13001,13 +13001,13 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>0.20242952788135768</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="C14">
-        <v>0.29130343559644761</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="D14">
-        <v>0.11718831158007345</v>
+        <v>0.11700000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13015,13 +13015,13 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>0.19382771297484125</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="C15">
-        <v>0.28683264257010865</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="D15">
-        <v>9.878965612692478E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13029,13 +13029,13 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>0.17751207376414521</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="C16">
-        <v>0.25401888483979163</v>
+        <v>0.254</v>
       </c>
       <c r="D16">
-        <v>0.10149873640872091</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
   </sheetData>
